--- a/data/shanhaijing.xlsx
+++ b/data/shanhaijing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shen/Desktop/project-2024-group-3-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BA5980-04C4-5B4C-83EA-33B2A15D1B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B474C35-F4F1-2642-90E5-FE03B78D5273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="17220" windowHeight="16840" xr2:uid="{2C77B15E-9CA6-3B4F-9415-1003969DE9ED}"/>
   </bookViews>
@@ -2820,150 +2820,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>薄山、甘棗之山、共水、河、歷兒之山、渠豬之山、渠豬之水、葱聾之山、涹山、脫扈之山、金星之山、泰威之山、橿谷之山、吳林之山、牛首之山、勞水、潏水、霍山、合谷之山、陰山、少水、鼓鐙之山、濟山、煇諸之山、發視之山、即魚之水、伊水、豪山、鮮山、鮮水、陽山、陽水、昆吾之山、葌山、葌水、獨蘇之山、蔓渠之山、洛、萯山、敖岸之山、青要之山、畛水、騩山、正回之水、宜蘇之山、滽滽之水、和山、九水、萯山、釐山、鹿蹄之山、甘水、扶豬之山、虢水、釐山、滽滽之水、伊水、箕尾之山、柄山、滔雕之水、白邊之山、熊耳之山、浮濠之水、牡山、讙舉之山、雒水、玄扈之水、薄山、苟床之山、首山、縣斸之山、葱聾之山、條谷之山、超山、成侯之山、朝歌之山、槐山、歷山、尸山、洛水、良餘之山、餘水、河、乳水、洛、蠱尾之山、龍餘之水、升山、黃酸之水、陽虛之山、玄扈之水、薄山、縞羝山、平逢之山、穀城之山、縞羝之山、廆山、交觴之水、俞隨之水、穀水、瞻諸之山、㴬水、少水、婁涿之山、瞻水、陂水、穀水、白石之山、惠水、澗水、穀山、爽水、密山、豪水、長石之山、共谷、共水、傅山、墦冢、橐山、橐水、常烝之山、潐水、菑水、夸父之山、桃林、湖水、陽華之山、楊水、門水、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𦁎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>姑之水、苦山、休與之山、鼓鍾之山、姑媱之山、苦山、堵山、放皋之山、明水、大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𩇵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>之山、狂水、半石之山、來需之水、合水、少室之山、休水、泰室之山、講山、嬰梁之山、浮戲之山、汜水、少陘之山、器難之水、役水、太山、太水、沒水、承水、沒、末山、末水、役山、敏山、大騩之山、荊山、景山、雎水、江、荊山、漳水、雎、驕山、女几之山、宜諸之山、洈水、漳、綸山、陸䣀之山、光山、岐山、銅山、美山、大堯之山、靈山、龍山、衡山、石山、若山、彘山、玉山、讙山、郁水、仁舉之山、師每之山、琴鼓之山、岷山、女凡之山、江水、海、崍山、崌山、大江、高梁之山、蛇山、鬲山、蒲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𪈘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>之水、隅陽之山、隅陽之山、徐之水、岐山、減水、勾檷之山、風雨之山、宣余之水、玉山、熊山、騩山、葛山、賈超之山、女几山、首陽之山、虎尾之山、繁繢之山、勇石之山、復州之山、楮山、又原之山、涿山、丙山、首陽山、首山、丙山、荊山、翼望之山、湍水、濟、貺水、漢、朝歌之山、潕水、榮、帝囷之山、帝囷之水、視山、前山、豐山、兔床之山、皮山、瑤碧之山、支離之山、祑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𥮐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>之山、堇理之山、依軲之山、即谷之山、鷄山、高前之山、游戲之山、從山、從水、嬰䃌之山、畢山、帝苑之水、視、樂馬之山、葴山、視水、汝水、嬰山、虎首之山、嬰侯之山、大孰之山、殺水、卑山、倚帝之山、鯢山、鯢水、雅山、灃水、宣山、淪水、衡山、豐山、嫗山、鮮山、章山、皋水、大支之山、區吳之山、聲匈之山、大騩之山、踵臼之山、歷石之山、求山、求水、丑陽之山、奧山、奧水、服山、杳山、几山、洞庭山、篇遇之山、雲山、龜山、丙山、風伯之山、莽浮之林、夫夫之山、洞庭之山、暴山、即公之山、堯山、江浮之山、真陵之山、陽帝之山、柴桑之山、榮余之山、</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>結匈國、南山、羽民國、讙頭國、讙朱國、厭火國、苗國、臷國、貫匈國、三毛國、交脛國、穿匈國、岐舌國、崑崙墟、首國、周饒國、焦僥國、長臂國、狄山、湯山、、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>結匈國、大運山、身國、臂國、奇肱之國、丈夫國、巫咸國、女子國、軒轅之國、窮山、白民之國、肅慎之國、長股之國</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>無</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𦜹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>之國、目國、柔利國、留利之國、無腸之國、聶耳之國、無腸國、博父國、拘纓之國、利纓之國、跂踵國、范林、務隅之山、平丘、北海、</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天子鄣山、伯慮國、離耳國、彫題國、北朐國、鬱水、梟陽國、北朐、湘水、蒼梧之山、氾林、丹山、氐人國、開題之國、列人之國、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>䟽屬之山、大澤、鴈門山、鴈門、高柳、氐國、流黃酆氏之國、東胡、貊國、漢水、貊國、崑崙之墟、赤水、河水、渤海、洋水、黑水、弱水、青水、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇巫之山、龜山、犬封國、犬戎國、鬼國、林氏國、氾林、陽汙之山、蓋國、朝鮮、姑射國、蓬萊山、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海內之郡、月支之國、崑崙山、都州、郁州、琅瑘臺、會稽山、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2986,27 +2843,946 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不周負子、寒暑之水、濕山、幕山、共工國山、淑士、白民之國、長脛之國、西周之國、方山、先民之國、北狄之國、芒山、桂山、榣山、豐沮玉門、靈山、王母之山、壑山、海山、沃之國、龍山、三淖、桃山、䖟山、桂山、于土山、丈夫之國、弇州之山、軒轅之國、日月山、玄丹之山、鏖鏊鉅、巫山、壑山、金門之山、崑崙之丘、常陽之山、寒荒之國、壽麻之國、蓋山之國、大荒之山、互人之國、大巫山、金之山、徧勾、常羊之山、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附禺之山、封淵、不咸、肅慎氏之國、大人之國、衡天、叔歜國、北齊之國、先檻大逢之山、禹所積石、陽山、順山、順水、始州之國、丹山、毛民之國、儋耳之國、北極天樻、成都載天、無腸之國、岳之山、不句、係昆之山、深目民之國、鍾山、融父山、順水、齊州之山、君山、鬵山、鮮野山、魚山、中䡢、賴丘、犬戎國、章山、衡石山、九陰山、泂野之山、牛黎之國、章尾山、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝鮮、天毒、壑市、沮葉、鳥山、淮山、三水、好水、不死之山、肇山、禺中之國、鹽長之國、巴國、流黃辛氏、巴遂山、澠水、朱卷之國、衡山、菌山、桂山、三天子之都、九嶷山、蛇山、蛇水、不距之山、幽都之山、黑水、大玄之山、釘靈之國、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝餘、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>䧿山、招搖之山、堂庭之山、猨翼之山、杻陽之山、怪水、憲翼之水、祗山、亶爰之山、基山、青丘之山、箕尾之山、英水、即翼之澤、柜山、長右之山、堯光之山、羽山、瞿父之山、句餘之山、浮玉之山、成山、會稽之山、夷山、僕勾之山、咸陰之山、洵山、虖勺之山、區吳之山、鹿吳之山、漆吳之山、天虞之山、禱過之山、丹穴之山、發爽之山、旄山、非山、陽夾之山、灌湘之山、鷄山、令丘之山、侖者之山、禺槀之山、南禺之山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t>熏池、帝、禹、武羅、泰逢、驕蟲、帝臺、女尸、天愚、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𧕛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>圍、計蒙、涉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𧕛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、耕父、于兒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜格之松、朱木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴蟲、猎猎、戎宣王尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>猩猩、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𡹤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狗、翳鳥</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附禺之山、封淵、不咸、肅慎氏之國、大人之國、衡天、叔歜國、北齊之國、先檻大逢之山、禹所積石、陽山、順山、順水、始州之國、丹山、毛民之國、儋耳之國、北極天樻、成都載天、無腸之國、岳之山、不句、係昆之山、深目民之國、鍾山、融父山、順水、齊州之山、君山、鬵山、鮮野山、魚山、中䡢、賴丘、犬戎國、章山、衡石山、九陰山、泂野之山、牛黎之國、章尾山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顓頊、帝俊、禹、均國、役采、脩鞈、綽人、帝、禺號、禺彊、九鳳、彊良、夸父、后土、信、應龍、蚩尤、共工、相繇、黃帝女魃、黃帝、赤水女子獻、魃、叔均、犬戎、苗龍、融吾、弄明、白犬、少昊、苗民、驩頭、儋耳、燭九陰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝鮮、天毒、壑市、沮葉、鳥山、淮山、三水、好水、不死之山、肇山、禺中之國、鹽長之國、巴國、流黃辛氏、巴遂山、澠水、朱卷之國、衡山、菌山、桂山、三天子之都、九嶷山、蛇山、蛇水、不距之山、幽都之山、黑水、大玄之山、釘靈之國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃帝、雷祖、昌意、韓流、阿女、顓頊、柏高、后稷、鳥氏、大皞、咸鳥、乘釐、後照、贛巨人、苗民、延維、舜、相顧之尸、伯夷父、西岳、先龍、氐羌、炎帝、伯陵、吳權、緣婦、黃帝、駱明、白馬、鯀、帝俊、禺號、淫梁、番禺、奚仲、吉光、鼓、延、殳、少皞、般、羿、晏龍、三身、義均、后稷、稷、叔均、聽訞、炎居、節並、戲器、祝融、共工、術器、后土、噎鳴、祝融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顓頊、女媧之腸、石夷、叔均、帝俊、后稷、稷、台蠒、黃帝、始均、北狄、太子長琴、老童、祝融、女丑之尸、弇茲、重、黎、帝、天虞、常羲、黃姖之尸、西王母、女祭、女薎、女虔、季格、壽麻、夏耕之尸、成湯、夏桀、吳回、三面之人、夏后開、炎帝、靈恝、互人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂鳥、皇鳥、鸞鳥、鳳鳥、大鵹、少鵹、青鳥、鳴鳥、屏蓬、天犬、魚婦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不周負子、寒暑之水、濕山、幕山、共工國山、淑士、白民之國、長脛之國、西周之國、方山、先民之國、北狄之國、芒山、桂山、榣山、豐沮玉門、靈山、王母之山、壑山、海山、沃之國、龍山、三淖、桃山、䖟山、桂山、于土山、丈夫之國、弇州之山、軒轅之國、日月山、玄丹之山、鏖鏊鉅、巫山、壑山、金門之山、崑崙之丘、常陽之山、寒荒之國、壽麻之國、蓋山之國、大荒之山、互人之國、大巫山、金之山、徧勾、常羊之山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舜、叔均、帝俊、娥皇、顓頊、不廷胡余、因因乎、季釐、少昊、倍伐、帝舜、無淫、鑿齒、羿、蜮人、祖狀之尸、禹、張弘、驩頭、鯀、士敬、炎融、帝堯、帝嚳、帝舜、羲和、菌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>䟣踢、雙雙、育蛇、三騅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楓木、欒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩之鳥、夔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>犁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𩵀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之尸、帝俊、中容、晏龍、司幽、思士、思女、帝鴻、白民、黑齒、天吳、禺䝞、黃帝、禺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𧴆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、禺京、王亥、有易、僕牛、搖民、帝舜、戲、女丑、奢比尸、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𪂧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、應龍、蚩尤、夸父</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少昊之國、甘山、甘水、皮母地丘、大言、大人之國、小人國、潏山、楊水、蒍國、中容之國、合虛、東口之山、君子之國、司幽之國、大阿之山、明星、白民之國、青丘之國、維嬴土之國、黑齒之國、夏州之國、蓋余之國、鞠陵于天、東極、離瞀、招搖山、融水、玄股、困民國、孽搖頵羝、猗天蘇門、壎民之國、綦山、搖山、䰝山、門戶山、盛山、待山、壑明俊疾、中容之國、月母之國、凶犁土丘、流波山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海內之郡、月支之國、崑崙山、都州、郁州、琅瑘臺、會稽山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉量、窮奇、蜪犬、蟜、闒非、騶吾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>西王母、大行伯、貳負、據比、環拘、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𥘯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、戎、王子夜、舜、登比、宵明、燭光、登北氏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇巫之山、龜山、犬封國、犬戎國、鬼國、林氏國、氾林、陽汙之山、蓋國、朝鮮、姑射國、蓬萊山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貳負、危、帝、后稷、羿、禹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>䟽屬之山、大澤、鴈門山、鴈門、高柳、氐國、流黃酆氏之國、東胡、貊國、漢水、貊國、崑崙之墟、赤水、河水、渤海、洋水、黑水、弱水、青水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兕、狌狌、窫窳、巴蛇、旄馬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏后啟、孟涂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天子鄣山、伯慮國、離耳國、彫題國、北朐國、鬱水、梟陽國、北朐、湘水、蒼梧之山、氾林、丹山、氐人國、開題之國、列人之國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堯、天吳、帝、豎亥、勾芒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東海、大人國、君子國、青丘國、青丘、黑齒國、湯谷、玄股之國、毛民之國、勞民國、雨師妾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛩蛩、羅羅、禺彊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燭陰、共工、相柳氏、相柳、禹、夸父、帝顓頊、九嬪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>無</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𦜹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之國、目國、柔利國、留利之國、無腸之國、聶耳之國、無腸國、博父國、拘纓之國、利纓之國、跂踵國、范林、務隅之山、平丘、北海</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滅蒙鳥、龍魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏后啟、形天、帝、女祭、女戚、女丑之尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>株樹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比翼鳥、畢方鳥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝、羿、鑿齒、帝堯、帝嚳、吁咽、文王、祝融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結匈國、南山、羽民國、讙頭國、讙朱國、厭火國、苗國、臷國、貫匈國、三毛國、交脛國、穿匈國、岐舌國、崑崙墟、首國、周饒國、焦僥國、長臂國、狄山、湯山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>㔮、豪魚、飛魚、朏朏、鳴蛇、化蛇、蠪蚳、馬腹、夫諸、鴢、䴦、犀渠、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𤢺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、鴒䳩、旋龜、脩辟之魚、山膏、文文、三足龜、鯩魚、鰧魚、䱱魚、竊脂、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𤜣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狼、跂踵、雍和、鴆、嬰勺、青耕、獜、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𤟑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、狙如、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𤝻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>即、梁渠、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𩢢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>餘、聞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𧲂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、蛫</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蘀、櫔木、植楮、天嬰、鬼草、彫棠、榮草、芒草、荀草、茇、葶䔭、藷藇、帝臺之棋、風條、䔄草、黃棘、天楄、蒙木、牛傷、嘉榮、帝休、栯木、䔄草、帝屋、亢木、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𦱌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>草、梨、葪柏、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𦵧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、莽草、天井、帝女之桑、羊桃、桂竹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>薄山、甘棗之山、共水、河、歷兒之山、渠豬之山、渠豬之水、葱聾之山、涹山、脫扈之山、金星之山、泰威之山、橿谷之山、吳林之山、牛首之山、勞水、潏水、霍山、合谷之山、陰山、少水、鼓鐙之山、濟山、煇諸之山、發視之山、即魚之水、伊水、豪山、鮮山、鮮水、陽山、陽水、昆吾之山、葌山、葌水、獨蘇之山、蔓渠之山、洛、萯山、敖岸之山、青要之山、畛水、騩山、正回之水、宜蘇之山、滽滽之水、和山、九水、萯山、釐山、鹿蹄之山、甘水、扶豬之山、虢水、釐山、滽滽之水、伊水、箕尾之山、柄山、滔雕之水、白邊之山、熊耳之山、浮濠之水、牡山、讙舉之山、雒水、玄扈之水、薄山、苟床之山、首山、縣斸之山、葱聾之山、條谷之山、超山、成侯之山、朝歌之山、槐山、歷山、尸山、洛水、良餘之山、餘水、河、乳水、洛、蠱尾之山、龍餘之水、升山、黃酸之水、陽虛之山、玄扈之水、薄山、縞羝山、平逢之山、穀城之山、縞羝之山、廆山、交觴之水、俞隨之水、穀水、瞻諸之山、㴬水、少水、婁涿之山、瞻水、陂水、穀水、白石之山、惠水、澗水、穀山、爽水、密山、豪水、長石之山、共谷、共水、傅山、墦冢、橐山、橐水、常烝之山、潐水、菑水、夸父之山、桃林、湖水、陽華之山、楊水、門水、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𦁎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姑之水、苦山、休與之山、鼓鍾之山、姑媱之山、苦山、堵山、放皋之山、明水、大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𩇵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之山、狂水、半石之山、來需之水、合水、少室之山、休水、泰室之山、講山、嬰梁之山、浮戲之山、汜水、少陘之山、器難之水、役水、太山、太水、沒水、承水、沒、末山、末水、役山、敏山、大騩之山、荊山、景山、雎水、江、荊山、漳水、雎、驕山、女几之山、宜諸之山、洈水、漳、綸山、陸䣀之山、光山、岐山、銅山、美山、大堯之山、靈山、龍山、衡山、石山、若山、彘山、玉山、讙山、郁水、仁舉之山、師每之山、琴鼓之山、岷山、女凡之山、江水、海、崍山、崌山、大江、高梁之山、蛇山、鬲山、蒲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𪈘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之水、隅陽之山、隅陽之山、徐之水、岐山、減水、勾檷之山、風雨之山、宣余之水、玉山、熊山、騩山、葛山、賈超之山、女几山、首陽之山、虎尾之山、繁繢之山、勇石之山、復州之山、楮山、又原之山、涿山、丙山、首陽山、首山、丙山、荊山、翼望之山、湍水、濟、貺水、漢、朝歌之山、潕水、榮、帝囷之山、帝囷之水、視山、前山、豐山、兔床之山、皮山、瑤碧之山、支離之山、祑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𥮐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之山、堇理之山、依軲之山、即谷之山、鷄山、高前之山、游戲之山、從山、從水、嬰䃌之山、畢山、帝苑之水、視、樂馬之山、葴山、視水、汝水、嬰山、虎首之山、嬰侯之山、大孰之山、殺水、卑山、倚帝之山、鯢山、鯢水、雅山、灃水、宣山、淪水、衡山、豐山、嫗山、鮮山、章山、皋水、大支之山、區吳之山、聲匈之山、大騩之山、踵臼之山、歷石之山、求山、求水、丑陽之山、奧山、奧水、服山、杳山、几山、洞庭山、篇遇之山、雲山、龜山、丙山、風伯之山、莽浮之林、夫夫之山、洞庭之山、暴山、即公之山、堯山、江浮之山、真陵之山、陽帝之山、柴桑之山、榮余之山</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱅鱅之魚、從從、䖪鼠、箴魚、堪㐨之魚、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𧌁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>䗤、狪狪、軨軨、珠蟞魚、犰狳、朱獳、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𪁐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鶘、獙獙、蠪姪、峳峳、絜鉤、妴胡、鮯鮯之魚、精精、猲狙、鬿雀、鱃魚、茈魚、當康、䱻魚、合窳、蜚</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎帝、女娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>滑魚、䑏䟽、鵸鵌、儵魚、何羅之魚、孟槐、鰼鰼之魚、橐駝、耳鼠、孟極、幽鴳、足訾、鵁、諸犍、白鵺、那父、竦斯、旄牛、長蛇、窫窳、䰽䰽之魚、䲃魚、山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𤟤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、諸懷、鮨魚、肥遺、狕、鮆魚、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𩣡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>馬、狍鴞、獨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𤞞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𪄀𪃑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、居暨、囂、䮝、䴅、人魚、天馬、鶌鶋、飛鼠、領胡、象蛇、䱤父之魚、酸與、鴣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𪄶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、黃鳥、精衛、䍶䍶、獂、羆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萆荔、文莖、椶柟、黃雚、薰草、蓇蓉、杜衡、無條、玉膏、瑾瑜之玉、沙棠、薲草、櫰木、丹木、孰湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓、帝、葆江、欽䲹、英招、后稷、長乘、西王母、白帝少昊、磈氏、耆童、江疑、帝江、蓐收、紅光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>羬羊、䳋渠、肥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𧔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、赤鷩、葱聾、鴖、肥遺、毫彘、囂、橐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𩇯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、谿邊、櫟、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𤣎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如、數斯、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𤛎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、鸚䳇、鸓、鸞鳥、鳧徯、朱厭、舉父、蠻蠻、文鰩魚、土螻、鶉鳥、狡、胜遇、猙、畢方、天狗、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𢕟𢓨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、鴟、讙、鵸鵌、當扈、神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𩳁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、蠻蠻、冉遺之魚、駮、窮奇、蠃魚、鰠魚、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𩶯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魮之魚</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝餘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>狌狌、鹿蜀、旋龜、鯥、牝牡、猼訑、</t>
     </r>
     <r>
@@ -3028,791 +3804,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>、灌灌、赤鱬、狸力、鴸、長右、猾褢、彘、䍺、蠱雕、瞿如、虎蛟、鳳皇、鱄魚、顒、</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼓、帝、葆江、欽䲹、英招、后稷、長乘、西王母、白帝少昊、磈氏、耆童、江疑、帝江、蓐收、紅光、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>羬羊、䳋渠、肥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𧔥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、赤鷩、葱聾、鴖、肥遺、毫彘、囂、橐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𩇯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、谿邊、櫟、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𤣎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如、數斯、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𤛎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、鸚䳇、鸓、鸞鳥、鳧徯、朱厭、舉父、蠻蠻、文鰩魚、土螻、鶉鳥、狡、胜遇、猙、畢方、天狗、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𢕟𢓨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、鴟、讙、鵸鵌、當扈、神</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𩳁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、蠻蠻、冉遺之魚、駮、窮奇、蠃魚、鰠魚、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𩶯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>魮之魚、</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萆荔、文莖、椶柟、黃雚、薰草、蓇蓉、杜衡、無條、玉膏、瑾瑜之玉、沙棠、薲草、櫰木、丹木、孰湖、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炎帝、女娃、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>滑魚、䑏䟽、鵸鵌、儵魚、何羅之魚、孟槐、鰼鰼之魚、橐駝、耳鼠、孟極、幽鴳、足訾、鵁、諸犍、白鵺、那父、竦斯、旄牛、長蛇、窫窳、䰽䰽之魚、䲃魚、山</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𤟤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、諸懷、鮨魚、肥遺、狕、鮆魚、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𩣡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>馬、狍鴞、獨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𤞞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𪄀𪃑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、居暨、囂、䮝、䴅、人魚、天馬、鶌鶋、飛鼠、領胡、象蛇、䱤父之魚、酸與、鴣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𪄶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、黃鳥、精衛、䍶䍶、獂、羆、</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱅鱅之魚、從從、䖪鼠、箴魚、堪㐨之魚、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𧌁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>䗤、狪狪、軨軨、珠蟞魚、犰狳、朱獳、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𪁐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>鶘、獙獙、蠪姪、峳峳、絜鉤、妴胡、鮯鮯之魚、精精、猲狙、鬿雀、鱃魚、茈魚、當康、䱻魚、合窳、蜚、</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>蘀、櫔木、植楮、天嬰、鬼草、彫棠、榮草、芒草、荀草、茇、葶䔭、藷藇、帝臺之棋、風條、䔄草、黃棘、天楄、蒙木、牛傷、嘉榮、帝休、栯木、䔄草、帝屋、亢木、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𦱌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>草、梨、葪柏、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𦵧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、莽草、天井、帝女之桑、羊桃、桂竹、</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>熏池、帝、禹、武羅、泰逢、驕蟲、帝臺、女尸、天愚、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𧕛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>圍、計蒙、涉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𧕛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、耕父、于兒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>㔮、豪魚、飛魚、朏朏、鳴蛇、化蛇、蠪蚳、馬腹、夫諸、鴢、䴦、犀渠、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𤢺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、鴒䳩、旋龜、脩辟之魚、山膏、文文、三足龜、鯩魚、鰧魚、䱱魚、竊脂、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𤜣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>狼、跂踵、雍和、鴆、嬰勺、青耕、獜、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𤟑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、狙如、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𤝻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>即、梁渠、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𩢢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>餘、聞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𧲂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、蛫、</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比翼鳥、畢方鳥、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>株樹、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帝、羿、鑿齒、帝堯、帝嚳、吁咽、文王、祝融、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏后啟、形天、帝、女祭、女戚、女丑之尸、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滅蒙鳥、龍魚、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雄常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燭陰、共工、相柳氏、相柳、禹、夸父、帝顓頊、九嬪、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛩蛩、羅羅、禺彊、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東海、大人國、君子國、青丘國、青丘、黑齒國、湯谷、玄股之國、毛民之國、勞民國、雨師妾、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堯、天吳、帝、豎亥、勾芒、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏后啟、孟涂、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建木、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兕、狌狌、窫窳、巴蛇、旄馬、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貳負、危、帝、后稷、羿、禹、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉量、窮奇、蜪犬、蟜、闒非、騶吾、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>西王母、大行伯、貳負、據比、環拘、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𥘯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、戎、王子夜、舜、登比、宵明、燭光、登北氏、</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少昊之國、甘山、甘水、皮母地丘、大言、大人之國、小人國、潏山、楊水、蒍國、中容之國、合虛、東口之山、君子之國、司幽之國、大阿之山、明星、白民之國、青丘之國、維嬴土之國、黑齒之國、夏州之國、蓋余之國、鞠陵于天、東極、離瞀、招搖山、融水、玄股、困民國、孽搖頵羝、猗天蘇門、壎民之國、綦山、搖山、䰝山、門戶山、盛山、待山、壑明俊疾、中容之國、月母之國、凶犁土丘、流波山、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>犁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𩵀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>之尸、帝俊、中容、晏龍、司幽、思士、思女、帝鴻、白民、黑齒、天吳、禺䝞、黃帝、禺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𧴆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、禺京、王亥、有易、僕牛、搖民、帝舜、戲、女丑、奢比尸、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𪂧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、應龍、蚩尤、夸父、</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五彩之鳥、夔、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楓木、欒、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舜、叔均、帝俊、娥皇、顓頊、不廷胡余、因因乎、季釐、少昊、倍伐、帝舜、無淫、鑿齒、羿、蜮人、祖狀之尸、禹、張弘、驩頭、鯀、士敬、炎融、帝堯、帝嚳、帝舜、羲和、菌人、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>䟣踢、雙雙、育蛇、三騅、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柜格之松、朱木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顓頊、女媧之腸、石夷、叔均、帝俊、后稷、稷、台蠒、黃帝、始均、北狄、太子長琴、老童、祝融、女丑之尸、弇茲、重、黎、帝、天虞、常羲、黃姖之尸、西王母、女祭、女薎、女虔、季格、壽麻、夏耕之尸、成湯、夏桀、吳回、三面之人、夏后開、炎帝、靈恝、互人、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂鳥、皇鳥、鸞鳥、鳳鳥、大鵹、少鵹、青鳥、鳴鳥、屏蓬、天犬、魚婦、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琴蟲、猎猎、戎宣王尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顓頊、帝俊、禹、均國、役采、脩鞈、綽人、帝、禺號、禺彊、九鳳、彊良、夸父、后土、信、應龍、蚩尤、共工、相繇、黃帝女魃、黃帝、赤水女子獻、魃、叔均、犬戎、苗龍、融吾、弄明、白犬、少昊、苗民、驩頭、儋耳、燭九陰、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>猩猩、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>𡹤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>狗、翳鳥</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃帝、雷祖、昌意、韓流、阿女、顓頊、柏高、后稷、鳥氏、大皞、咸鳥、乘釐、後照、贛巨人、苗民、延維、舜、相顧之尸、伯夷父、西岳、先龍、氐羌、炎帝、伯陵、吳權、緣婦、黃帝、駱明、白馬、鯀、帝俊、禺號、淫梁、番禺、奚仲、吉光、鼓、延、殳、少皞、般、羿、晏龍、三身、義均、后稷、稷、叔均、聽訞、炎居、節並、戲器、祝融、共工、術器、后土、噎鳴、祝融、</t>
+      <t>、灌灌、赤鱬、狸力、鴸、長右、猾褢、彘、䍺、蠱雕、瞿如、虎蛟、鳳皇、鱄魚、顒</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4236,8 +4229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B6FD2-D201-CB4A-9F27-6B4C8E741A86}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4279,13 +4272,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.6">
@@ -4302,13 +4295,13 @@
         <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="409.6">
@@ -4325,10 +4318,10 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="409.6">
@@ -4345,7 +4338,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="409.6">
@@ -4359,16 +4352,16 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="409.6">
@@ -4382,16 +4375,16 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="409.6">
@@ -4405,16 +4398,16 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="409.6">
@@ -4428,13 +4421,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="409.6">
@@ -4448,10 +4441,10 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
         <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="356">
@@ -4465,16 +4458,16 @@
         <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="409.6">
@@ -4488,10 +4481,10 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="409.6">
@@ -4505,13 +4498,13 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="221">
@@ -4522,13 +4515,13 @@
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="409.6">
@@ -4542,13 +4535,13 @@
         <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="409.6">
@@ -4562,16 +4555,16 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="409.6">
@@ -4585,16 +4578,16 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="409.6">
@@ -4608,13 +4601,13 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="409.6">
@@ -4628,13 +4621,13 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
-        <v>101</v>
-      </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
